--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220522_110504.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220522_110504.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -721,7 +721,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>페포니뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>BRAVE</t>
@@ -1235,7 +1232,7 @@
         <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1261,7 +1258,7 @@
         <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1339,7 +1336,7 @@
         <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1365,7 +1362,7 @@
         <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1391,7 +1388,7 @@
         <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1417,7 +1414,7 @@
         <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1443,7 +1440,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1495,7 +1492,7 @@
         <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1547,7 +1544,7 @@
         <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1573,7 +1570,7 @@
         <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1599,7 +1596,7 @@
         <v>224</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1625,7 +1622,7 @@
         <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1651,7 +1648,7 @@
         <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1677,7 +1674,7 @@
         <v>237</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1703,7 +1700,7 @@
         <v>238</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1729,7 +1726,7 @@
         <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1755,7 +1752,7 @@
         <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1781,7 +1778,7 @@
         <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1807,7 +1804,7 @@
         <v>224</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1833,7 +1830,7 @@
         <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1937,7 +1934,7 @@
         <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1963,7 +1960,7 @@
         <v>237</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1989,7 +1986,7 @@
         <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2015,7 +2012,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2067,7 +2064,7 @@
         <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2119,7 +2116,7 @@
         <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2145,7 +2142,7 @@
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2223,7 +2220,7 @@
         <v>245</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2249,7 +2246,7 @@
         <v>228</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2275,7 +2272,7 @@
         <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2301,7 +2298,7 @@
         <v>229</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2327,7 +2324,7 @@
         <v>233</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2379,7 +2376,7 @@
         <v>247</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2405,7 +2402,7 @@
         <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2457,7 +2454,7 @@
         <v>248</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2483,7 +2480,7 @@
         <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2535,7 +2532,7 @@
         <v>249</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2561,7 +2558,7 @@
         <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2587,7 +2584,7 @@
         <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2613,7 +2610,7 @@
         <v>235</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2639,7 +2636,7 @@
         <v>241</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2665,7 +2662,7 @@
         <v>250</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2691,7 +2688,7 @@
         <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2717,7 +2714,7 @@
         <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2743,7 +2740,7 @@
         <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2769,7 +2766,7 @@
         <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2795,7 +2792,7 @@
         <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2821,7 +2818,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2847,7 +2844,7 @@
         <v>235</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2873,7 +2870,7 @@
         <v>245</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2899,7 +2896,7 @@
         <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2951,7 +2948,7 @@
         <v>233</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2977,7 +2974,7 @@
         <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3003,7 +3000,7 @@
         <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3029,7 +3026,7 @@
         <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,10 +3049,10 @@
         <v>206</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3078,10 +3075,10 @@
         <v>207</v>
       </c>
       <c r="G74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3156,10 +3153,10 @@
         <v>210</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3182,10 +3179,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,10 +3205,10 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3237,7 +3234,7 @@
         <v>235</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3263,7 +3260,7 @@
         <v>245</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3289,7 +3286,7 @@
         <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3315,7 +3312,7 @@
         <v>235</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3367,7 +3364,7 @@
         <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3390,10 +3387,10 @@
         <v>213</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3416,10 +3413,10 @@
         <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3445,7 +3442,7 @@
         <v>233</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3497,7 +3494,7 @@
         <v>233</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3523,7 +3520,7 @@
         <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3549,7 +3546,7 @@
         <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3601,7 +3598,7 @@
         <v>249</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3624,10 +3621,10 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3653,7 +3650,7 @@
         <v>224</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3676,10 +3673,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3705,7 +3702,7 @@
         <v>250</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3780,10 +3777,10 @@
         <v>222</v>
       </c>
       <c r="G101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
